--- a/excels/test-fromMaps-template.xlsx
+++ b/excels/test-fromMaps-template.xlsx
@@ -456,8 +456,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="10.5390625" collapsed="false" bestFit="true"/>
-    <col min="3" max="3" customWidth="true" width="11.71484375" collapsed="false" bestFit="true"/>
+    <col min="2" max="2" customWidth="true" width="26.33203125" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="29.0" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:3">

--- a/excels/test-fromMaps-template.xlsx
+++ b/excels/test-fromMaps-template.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bingoobjca/github/xlsx-java/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13D0526D-3093-2746-8E2E-50B6EFD94211}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{13D0526D-3093-2746-8E2E-50B6EFD94211}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
   <bookViews>
-    <workbookView xWindow="-28260" yWindow="860" windowWidth="27440" windowHeight="16440" xr2:uid="{E377AC1E-7096-554C-B25F-31543651D3ED}"/>
+    <workbookView windowHeight="16440" windowWidth="27440" xWindow="-28260" xr2:uid="{E377AC1E-7096-554C-B25F-31543651D3ED}" yWindow="860"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -120,26 +120,26 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="常规" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -156,10 +156,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -194,7 +194,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -246,7 +246,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -357,21 +357,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -388,7 +388,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -440,15 +440,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C127AAA-9B9C-BB46-BA83-CD682FFF893D}">
-  <dimension ref="B3:C7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C127AAA-9B9C-BB46-BA83-CD682FFF893D}">
+  <dimension ref="B3:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
@@ -502,7 +502,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" verticalDpi="0"/>
 </worksheet>
 </file>